--- a/docs/test/Testconcept_OrganisationApp_Angel.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_Angel.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammerschall\Daten\workspaces\basicapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD89BC5F-1935-4E0A-AA57-FDB40D308B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="6180" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit Tests Flutter" sheetId="7" r:id="rId1"/>
-    <sheet name="Widget Tests Flutter" sheetId="5" r:id="rId2"/>
-    <sheet name="Integrationtest" sheetId="8" r:id="rId3"/>
+    <sheet name="Infos" sheetId="9" r:id="rId1"/>
+    <sheet name="Unit-Tests Frontend" sheetId="10" r:id="rId2"/>
+    <sheet name="Widget-Tests Frontend" sheetId="5" r:id="rId3"/>
+    <sheet name="Integration-Tests Frontend" sheetId="8" r:id="rId4"/>
+    <sheet name="Unit-Tests Backend" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,16 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
-  <si>
-    <t>fetchItemList</t>
-  </si>
-  <si>
-    <t>createNewItem</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="116">
   <si>
     <t>Leere Liste</t>
   </si>
@@ -58,39 +52,9 @@
     <t>Eingaben</t>
   </si>
   <si>
-    <t>Es liegen Items in der Liste vor</t>
-  </si>
-  <si>
-    <t>Es liegen keine Items in der Liste vor</t>
-  </si>
-  <si>
-    <t>Der Server ist nicht verfügbar</t>
-  </si>
-  <si>
-    <t>Name und Beschreibung des Items</t>
-  </si>
-  <si>
-    <t>Item mit ID, Name und Beschreibung</t>
-  </si>
-  <si>
-    <t>Liste  von Items mit ID, Name und Beschreibung</t>
-  </si>
-  <si>
     <t>Grenzwertanalyse</t>
   </si>
   <si>
-    <t>Es liegt genau ein Item in der Liste vor</t>
-  </si>
-  <si>
-    <t>Liste mit genau diesem Item</t>
-  </si>
-  <si>
-    <t>Name des Items, Beschreibung leer</t>
-  </si>
-  <si>
-    <t>Name leer, Beschreibung des Items</t>
-  </si>
-  <si>
     <t>Erwartete Ausgaben</t>
   </si>
   <si>
@@ -109,37 +73,10 @@
     <t>nicht verfügbar</t>
   </si>
   <si>
-    <t>Es liegen Items vor</t>
-  </si>
-  <si>
-    <t>Es liegen keine Items vor</t>
-  </si>
-  <si>
     <t>Eingabe</t>
   </si>
   <si>
     <t>Ausgabe</t>
-  </si>
-  <si>
-    <t>Liste mit Items</t>
-  </si>
-  <si>
-    <t>Äquivalenzklassentest</t>
-  </si>
-  <si>
-    <t>verfügbar</t>
-  </si>
-  <si>
-    <t>Name und Beschreibung</t>
-  </si>
-  <si>
-    <t>Name, Beschreibung fehlt</t>
-  </si>
-  <si>
-    <t>Name und Beschreibung fehlen</t>
-  </si>
-  <si>
-    <t>Name leer, Beschreibung leer</t>
   </si>
   <si>
     <t>Zwei Card-Widgets vorhanden</t>
@@ -242,13 +179,214 @@
   <si>
     <t>Bleibt auf MainPage, 
 Es werden keine Items angezeigt</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Angel Curras Sanchez</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>unit-test</t>
+  </si>
+  <si>
+    <t>lib/controller/course_controller.dart</t>
+  </si>
+  <si>
+    <t>CourseCountroller</t>
+  </si>
+  <si>
+    <t>getAllCoursesForUser</t>
+  </si>
+  <si>
+    <t>enroll</t>
+  </si>
+  <si>
+    <t>updateCourse</t>
+  </si>
+  <si>
+    <t>deleteCourse</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>toJsonMap</t>
+  </si>
+  <si>
+    <t>fromJsonMap</t>
+  </si>
+  <si>
+    <t>toJsonString</t>
+  </si>
+  <si>
+    <t>fromJsonString</t>
+  </si>
+  <si>
+    <t>lib/model/course.dart</t>
+  </si>
+  <si>
+    <t>MyCoursesPage</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>widget-test</t>
+  </si>
+  <si>
+    <t>Getestete Elemente</t>
+  </si>
+  <si>
+    <t>lib/pages/my_courses/my_courses_page.dart</t>
+  </si>
+  <si>
+    <t>lib/pages/my_courses/update_course_dialog.dart</t>
+  </si>
+  <si>
+    <t>UpdateCourseDialog</t>
+  </si>
+  <si>
+    <t>Funktion/Methode</t>
+  </si>
+  <si>
+    <t>Gültiger Benutzer</t>
+  </si>
+  <si>
+    <t>Ungültiger Benutzer</t>
+  </si>
+  <si>
+    <t>Leere Liste durch TimeoutException</t>
+  </si>
+  <si>
+    <t>JSON Decode Exception</t>
+  </si>
+  <si>
+    <t>LeereListe durch Unautorized Response</t>
+  </si>
+  <si>
+    <t>Leere Liste durch Course not found</t>
+  </si>
+  <si>
+    <t>Liste  von Kursen</t>
+  </si>
+  <si>
+    <t>Es liegen Kurse vor</t>
+  </si>
+  <si>
+    <t>Es liegen keine Kurse vor</t>
+  </si>
+  <si>
+    <t>Liste mit Kursen</t>
+  </si>
+  <si>
+    <t>Leere Liste durch einen anderen Fehler</t>
+  </si>
+  <si>
+    <t>LeereListe durch Unauthorized Response</t>
+  </si>
+  <si>
+    <t>Äquivalenzklasse</t>
+  </si>
+  <si>
+    <t>Möglichkeiten -&gt;</t>
+  </si>
+  <si>
+    <t>Es liegt genau ein Kurs in der Liste vor</t>
+  </si>
+  <si>
+    <t>Modul angemeldet: Code 201</t>
+  </si>
+  <si>
+    <t>Modul bereits angemeldet: Code 409</t>
+  </si>
+  <si>
+    <t>Anderer Fehler</t>
+  </si>
+  <si>
+    <t>Gültige Subscription</t>
+  </si>
+  <si>
+    <t>Ungültige Subscription</t>
+  </si>
+  <si>
+    <t>Modul angemeldet</t>
+  </si>
+  <si>
+    <t>Modul nicht angemeldet</t>
+  </si>
+  <si>
+    <t>Server nicht verfügbar</t>
+  </si>
+  <si>
+    <t>TimeoutException: Code 408</t>
+  </si>
+  <si>
+    <t>Kurs gelöscht</t>
+  </si>
+  <si>
+    <t>Kurs aktualisiert</t>
+  </si>
+  <si>
+    <t>Kurs nicht aktualisiert</t>
+  </si>
+  <si>
+    <t>Gültiger Kurs</t>
+  </si>
+  <si>
+    <t>Ungültiger Kurs</t>
+  </si>
+  <si>
+    <t>Kurs erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>Kurs nicht erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>TimeoutException: Kurs nicht erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>Test-Typ</t>
+  </si>
+  <si>
+    <t>Liste mit genau diesem Kurs</t>
+  </si>
+  <si>
+    <t>Kurs nicht gelöscht</t>
+  </si>
+  <si>
+    <t>Kurs erfolgreich gelöscht</t>
+  </si>
+  <si>
+    <t>Kurs nicht erfolgreich gelöscht</t>
+  </si>
+  <si>
+    <t>TimeoutException: Kurs nicht erfolgreich gelöscht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +402,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +430,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -315,11 +478,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,12 +585,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,29 +599,738 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="45">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +1341,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:E14" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+  <autoFilter ref="A4:E14" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Datei" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+  <autoFilter ref="A33:E37" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A50:E53" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A66:E69" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,382 +1675,1349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" style="16" customWidth="1"/>
-    <col min="3" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" customWidth="1"/>
-    <col min="7" max="10" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="14">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="14">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="15">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="15">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="15">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777E552-38DB-4FF6-8E00-150ECCF800EA}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>8</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="31">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10" style="15" customWidth="1"/>
     <col min="3" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" customWidth="1"/>
     <col min="7" max="11" width="26.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
@@ -1038,21 +3028,21 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="14" t="s">
-        <v>23</v>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="21" t="s">
-        <v>7</v>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1061,24 +3051,24 @@
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>46</v>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="21" t="s">
-        <v>8</v>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1086,77 +3076,77 @@
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>51</v>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="20"/>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>52</v>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="21" t="s">
-        <v>30</v>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>53</v>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
@@ -1167,9 +3157,9 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1182,21 +3172,21 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="21" t="s">
-        <v>7</v>
+      <c r="G8" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1205,51 +3195,51 @@
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1257,38 +3247,38 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
@@ -1302,9 +3292,9 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -1319,17 +3309,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10" style="14" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
@@ -1337,118 +3325,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>23</v>
+      <c r="A1" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1458,4 +3446,16 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC10DF8B-338F-4ED2-9F64-130340EF975F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/test/Testconcept_OrganisationApp_Angel.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_Angel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD89BC5F-1935-4E0A-AA57-FDB40D308B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B5121-6502-4794-8040-E5742468A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="125">
   <si>
     <t>Leere Liste</t>
   </si>
@@ -139,48 +139,12 @@
     <t>Nachbedingung</t>
   </si>
   <si>
-    <t>Start auf MainPage</t>
-  </si>
-  <si>
-    <t>Wechsel auf CreateItemPage</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Eingabewerte eingeben (item name, item description)</t>
-  </si>
-  <si>
-    <t>Create und Delete Item</t>
-  </si>
-  <si>
-    <t>Click FloatingActionButton</t>
-  </si>
-  <si>
     <t>Vorbedingung</t>
   </si>
   <si>
-    <t>Kein Item vorhanden</t>
-  </si>
-  <si>
-    <t>Es werden keine Items angezeigt</t>
-  </si>
-  <si>
-    <t>Click auf Save Button</t>
-  </si>
-  <si>
-    <t>Wechsel zurück auf MainPage
-Liste mit einem Element
-Das Element enthält die angegebenen Daten</t>
-  </si>
-  <si>
-    <t>Click auf Delete Icon</t>
-  </si>
-  <si>
-    <t>Bleibt auf MainPage, 
-Es werden keine Items angezeigt</t>
-  </si>
-  <si>
     <t>Tester</t>
   </si>
   <si>
@@ -380,6 +344,66 @@
   </si>
   <si>
     <t>TimeoutException: Kurs nicht erfolgreich gelöscht</t>
+  </si>
+  <si>
+    <t>Kurs anmelden und löschen</t>
+  </si>
+  <si>
+    <t>Benutzer nicht angemeldet</t>
+  </si>
+  <si>
+    <t>Start auf LoginPage</t>
+  </si>
+  <si>
+    <t>Benutzer anmelden mit "acurrass"</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "MyCourses" page</t>
+  </si>
+  <si>
+    <t>Auf Page "Modules" navigieren</t>
+  </si>
+  <si>
+    <t>Den ersten Kurs klicken</t>
+  </si>
+  <si>
+    <t>Auf Page "Module detail" navigieren</t>
+  </si>
+  <si>
+    <t>User login angezeigt</t>
+  </si>
+  <si>
+    <t>Zurück auf Page "Modules" navigieren</t>
+  </si>
+  <si>
+    <t>Auf Page "MyCourses" navigieren</t>
+  </si>
+  <si>
+    <t>Es gibt ein genau ein Kurs angemeldet</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "Module Detail" page</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "Modules" page</t>
+  </si>
+  <si>
+    <t>Page "Modules" hat mehreren Elementen</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "MyCourses" page, 0 Kurse angezeigt</t>
+  </si>
+  <si>
+    <t>Click FloatingActionButton "+Add"</t>
+  </si>
+  <si>
+    <t>Click FloatingActionButton "+Enroll"</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "MyCourses" page, 1 Kurs angezeigt</t>
+  </si>
+  <si>
+    <t>Click Delete Icon auf dem Kurs</t>
   </si>
 </sst>
 </file>
@@ -442,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -561,13 +585,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -593,9 +628,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,22 +640,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -744,13 +795,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -760,6 +804,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -880,13 +931,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -902,7 +946,11 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1019,13 +1067,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1035,6 +1076,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1155,13 +1203,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1171,6 +1212,152 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1192,142 +1379,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1344,49 +1395,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:E14" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:E14" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A4:E14" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Datei" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Datei" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A33:E37" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A50:E53" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="13"/>
@@ -1400,7 +1451,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A66:E69" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="4"/>
@@ -1678,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1690,203 +1741,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>49</v>
+      <c r="A1" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="17" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="18" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="20" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="21" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1915,1072 +1966,792 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="25">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>8</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="B53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="B60" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <v>8</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="26" t="s">
+      <c r="C67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="E67" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="22" t="s">
+      <c r="E69" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="31">
-        <v>2</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="31">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3004,7 +2775,7 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10" style="14" customWidth="1"/>
     <col min="3" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" customWidth="1"/>
@@ -3311,138 +3082,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="13" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
+      <c r="B2" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/docs/test/Testconcept_OrganisationApp_Angel.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_Angel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27304"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B5121-6502-4794-8040-E5742468A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA48A30-BADE-4168-A5B3-C58007D57287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="147">
   <si>
     <t>Leere Liste</t>
   </si>
@@ -346,27 +346,15 @@
     <t>TimeoutException: Kurs nicht erfolgreich gelöscht</t>
   </si>
   <si>
-    <t>Kurs anmelden und löschen</t>
-  </si>
-  <si>
     <t>Benutzer nicht angemeldet</t>
   </si>
   <si>
-    <t>Start auf LoginPage</t>
-  </si>
-  <si>
     <t>Benutzer anmelden mit "acurrass"</t>
   </si>
   <si>
-    <t>Benutzer befindet sich in "MyCourses" page</t>
-  </si>
-  <si>
     <t>Auf Page "Modules" navigieren</t>
   </si>
   <si>
-    <t>Den ersten Kurs klicken</t>
-  </si>
-  <si>
     <t>Auf Page "Module detail" navigieren</t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>Auf Page "MyCourses" navigieren</t>
   </si>
   <si>
-    <t>Es gibt ein genau ein Kurs angemeldet</t>
-  </si>
-  <si>
     <t>Benutzer befindet sich in "Module Detail" page</t>
   </si>
   <si>
@@ -404,6 +389,89 @@
   </si>
   <si>
     <t>Click Delete Icon auf dem Kurs</t>
+  </si>
+  <si>
+    <t>Auf Page "ToDos" navigieren</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "ToDos" page, 0 Tasks angezeigt</t>
+  </si>
+  <si>
+    <t>Den ersten Modul klicken</t>
+  </si>
+  <si>
+    <t>Auf dem angezeigten Kurs tippen</t>
+  </si>
+  <si>
+    <t>Kurs-Startdatum auf dem 1. Tag des Monats einstellen</t>
+  </si>
+  <si>
+    <t>User sieht den "Update Course"-Dialog</t>
+  </si>
+  <si>
+    <t>Kurs-Enddatum auf dem 8. Tag des Monats einstellen</t>
+  </si>
+  <si>
+    <t>Vorlesungstag  des Kurses auf Montag einstellen</t>
+  </si>
+  <si>
+    <t>Startzeit der Vorlesung auf die aktuelle Zeit einstellen</t>
+  </si>
+  <si>
+    <t>Endzeit der Vorlesung auf die aktuelle Zeit einstellen</t>
+  </si>
+  <si>
+    <t>Auf "Update" klicken"</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "MyCourses" page, 1 Kurse angezeigt</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "ToDos" page, mindestens 1 Tasks angezeigt</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "ToDos" page, 1 Tasks angezeigt</t>
+  </si>
+  <si>
+    <t>Benutzer anmelden und dann
+Kurs anmelden, 
+bearbeiten und löschen</t>
+  </si>
+  <si>
+    <t>Benutzer anmelden und abmelden</t>
+  </si>
+  <si>
+    <t>Benutzer anmelden mit "test"</t>
+  </si>
+  <si>
+    <t>Menu drawer öffnen und "Logout" klicken</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich auf "Login"-Page</t>
+  </si>
+  <si>
+    <t>integration-test</t>
+  </si>
+  <si>
+    <t>Test-Datei</t>
+  </si>
+  <si>
+    <t>Komponente-Datei</t>
+  </si>
+  <si>
+    <t>test/controller/course_controller_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>test/pages/my_courses/my_courses_page_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>test/pages/my_courses/update_course_dialog_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>integration_test/my_courses_page_integration_test.dart</t>
   </si>
 </sst>
 </file>
@@ -466,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -585,24 +653,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -650,7 +707,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,23 +714,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -682,7 +733,29 @@
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="46">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1395,70 +1468,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:E14" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <autoFilter ref="A4:E14" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Datei" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F15" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A4:F15" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}" name="Table2" displayName="Table2" ref="A33:E37" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A33:E37" xr:uid="{F14D9A62-EDFE-495A-B364-78C15A561E64}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{1FEBC6A1-198F-4391-B3DC-05D7A4E32C70}" name="Testfälle" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{042EC9E0-A8C8-4C3E-BD3F-95FC60909884}" name="Test-Typ" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CD206702-28C3-4543-B9AF-58A1AAF95370}" name="Bedingung" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{04980909-F3A9-4833-BE87-4BB3581CB32F}" name="Eingaben" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A6A811CF-3C68-4D81-97CA-4B50FDE26983}" name="Erwartete Ausgaben" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}" name="Table25" displayName="Table25" ref="A50:E53" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A50:E53" xr:uid="{BD55EE71-C092-4977-AC10-EABA0578F3D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6D56E884-0C93-4FE3-B701-B681A7407FB0}" name="Testfälle" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6F81EE2D-6BC2-45B5-B0BC-5E496F03639C}" name="Test-Typ" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{DE80C218-9751-4F79-B688-DCC586338CAB}" name="Bedingung" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8DA08EF7-F359-4B88-AB6B-D88B17FC13AB}" name="Eingaben" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AEDF790C-55EA-4F5C-BBFF-833A8F1C9F11}" name="Erwartete Ausgaben" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}" name="Table256" displayName="Table256" ref="A66:E69" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A66:E69" xr:uid="{8CB4B03A-8958-42D0-A09E-E22577AB3C1A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2B07C3BB-A044-42E0-8B0A-3ED55ED611E7}" name="Testfälle" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A5EB616-F59B-4E4B-AAE2-71A879AC3B04}" name="Test-Typ" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{447637BA-270D-472C-86C4-86C5D13115E4}" name="Bedingung" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6A685376-CF34-42EA-A432-2B3B583C4522}" name="Eingaben" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{11821F10-C243-41EE-A7F8-78CF1B0BF131}" name="Erwartete Ausgaben" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1727,20 +1801,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
@@ -1748,12 +1825,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -1761,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>44</v>
@@ -1769,8 +1846,11 @@
       <c r="E4" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
@@ -1786,8 +1866,11 @@
       <c r="E5" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
@@ -1803,8 +1886,11 @@
       <c r="E6" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>40</v>
       </c>
@@ -1820,8 +1906,11 @@
       <c r="E7" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -1837,8 +1926,11 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>40</v>
       </c>
@@ -1854,8 +1946,9 @@
       <c r="E9" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
@@ -1871,8 +1964,9 @@
       <c r="E10" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
@@ -1888,8 +1982,9 @@
       <c r="E11" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>40</v>
       </c>
@@ -1905,8 +2000,9 @@
       <c r="E12" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>40</v>
       </c>
@@ -1922,8 +2018,11 @@
       <c r="E13" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>40</v>
       </c>
@@ -1938,6 +2037,29 @@
       </c>
       <c r="E14" s="9" t="s">
         <v>60</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1954,18 +2076,18 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1975,7 +2097,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
@@ -1983,7 +2105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +2113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
@@ -1999,7 +2121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2135,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2151,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2167,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2061,7 +2183,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +2209,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>1</v>
       </c>
@@ -2121,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -2138,7 +2260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>3</v>
       </c>
@@ -2155,7 +2277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>4</v>
       </c>
@@ -2172,7 +2294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>5</v>
       </c>
@@ -2189,7 +2311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>6</v>
       </c>
@@ -2206,7 +2328,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>7</v>
       </c>
@@ -2223,7 +2345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>8</v>
       </c>
@@ -2240,10 +2362,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -2253,7 +2375,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -2261,7 +2383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>44</v>
       </c>
@@ -2269,7 +2391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>66</v>
       </c>
@@ -2277,7 +2399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>4</v>
       </c>
@@ -2288,7 +2410,7 @@
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -2301,7 +2423,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2436,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2449,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>1</v>
       </c>
@@ -2378,7 +2500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>2</v>
       </c>
@@ -2395,7 +2517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>3</v>
       </c>
@@ -2412,7 +2534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>4</v>
       </c>
@@ -2429,7 +2551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -2439,7 +2561,7 @@
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
@@ -2447,7 +2569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>44</v>
       </c>
@@ -2455,7 +2577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
@@ -2463,7 +2585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2595,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -2485,7 +2607,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2619,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
@@ -2509,7 +2631,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>1</v>
       </c>
@@ -2557,7 +2679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>2</v>
       </c>
@@ -2574,7 +2696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>3</v>
       </c>
@@ -2591,7 +2713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -2601,7 +2723,7 @@
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>43</v>
       </c>
@@ -2609,7 +2731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>44</v>
       </c>
@@ -2617,7 +2739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>66</v>
       </c>
@@ -2625,7 +2747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>4</v>
       </c>
@@ -2635,7 +2757,7 @@
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2769,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2781,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
@@ -2671,7 +2793,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>15</v>
       </c>
@@ -2685,7 +2807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>1</v>
       </c>
@@ -2719,7 +2841,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -2736,7 +2858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
@@ -2772,17 +2894,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" style="14" customWidth="1"/>
-    <col min="3" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="7" max="11" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" customWidth="1"/>
+    <col min="7" max="11" width="26.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2919,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="12" t="s">
         <v>10</v>
@@ -2820,7 +2942,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="12">
         <v>1</v>
@@ -2845,7 +2967,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="12">
         <v>2</v>
@@ -2874,7 +2996,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="12">
         <v>3</v>
@@ -2905,7 +3027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="12">
         <v>4</v>
@@ -2926,7 +3048,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2941,7 +3063,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="12">
         <v>8</v>
@@ -2964,7 +3086,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="12">
         <v>9</v>
@@ -2991,7 +3113,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="12">
         <v>10</v>
@@ -3016,7 +3138,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="12">
         <v>11</v>
@@ -3047,7 +3169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="12">
         <v>12</v>
@@ -3061,7 +3183,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="12"/>
       <c r="C13" s="2"/>
@@ -3082,137 +3204,338 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="13" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="27" t="s">
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="27" t="s">
+      <c r="D8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="27" t="s">
+      <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="27" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>2</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3225,7 +3548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
